--- a/biology/Botanique/Tillandsia_violascens/Tillandsia_violascens.xlsx
+++ b/biology/Botanique/Tillandsia_violascens/Tillandsia_violascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia violascens Mez est une plante de la famille des Bromeliaceae.
 L'épithète violascens signifie « tirant sur le violet » et se rapporte au coloris du feuillage.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia violascens Mez in C.DC., Monogr. Phan. 9: 797, n° 158 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « statura conspicua ; foliis rosulatis, non nisi minute sub lente lepidoto-punctulatis ; inflorescentia densissime subelongateque thyrsoideo-panniculata[sic] ; spicis subflabellatis, haud ultra 4-floris, superioribus bracteas primarias subaequantibus ceteris iis brevioribus ; bracteolis florigeris sepala superantibus ; floribus erectis ; sepalis subaequaliter basi minute connatis. »
-Type : : leg. Mandon, n° 1174, 1861-08 ; « Bolivia, vic. Sorata in monte Chitiera, alt. 2 700 m. » ; Herb. Mus. Brit., Paris[1].
+Type : : leg. Mandon, n° 1174, 1861-08 ; « Bolivia, vic. Sorata in monte Chitiera, alt. 2 700 m. » ; Herb. Mus. Brit., Paris.
 leg. Mandon, n° 1174, 1861-08 ; « Bolivia. La paz. Laraceja. Vic. Sorata, monte Chilieca, super arbores, 2700 m. » ; Isotypus GH (Gray Herbarium) (GH 29461)</t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,11 +620,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[1],[2].
-Habitat : forêt nuageuse[2].
-Altitude : 2700-3500 m[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte,.
+Habitat : forêt nuageuse.
+Altitude : 2700-3500 m.</t>
         </is>
       </c>
     </row>
@@ -634,11 +654,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Bolivie[1],[2]
- Pérou[2]</t>
+ Bolivie,
+ Pérou</t>
         </is>
       </c>
     </row>
@@ -667,6 +689,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
